--- a/ComparingWithRoboflow.xlsx
+++ b/ComparingWithRoboflow.xlsx
@@ -20,62 +20,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t xml:space="preserve">Image </t>
   </si>
   <si>
-    <t xml:space="preserve">Detected by bone-fracture-7fylg_Yolov10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Detected in </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Model &amp; API (roboflow.com)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">EvaluateTESTFracture-7fylg_SeveralModels_Yolov10.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detected in Model &amp; API (roboflow.com) </t>
   </si>
   <si>
     <t xml:space="preserve">105_jpg.rf.3cde2fcd15a9bdf6a2d2d32aff48f33d.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_jpg.rf.d362a00f9a6b4ac31668dc8aae9c71de.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10_jpg.rf.d362a00f9a6b4ac31668dc8aae9c71de.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">117_jpg.rf.119dccd2483b04d8d3a8c33a1393d362.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">118_jpg.rf.acee2a86eba65adc57f3b15d5acab93c.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">No label</t>
+  </si>
+  <si>
     <t xml:space="preserve">124_jpg.rf.100aeaede7a9c017d7f74f73cfcf34d7.jpg</t>
   </si>
   <si>
@@ -91,6 +67,9 @@
     <t xml:space="preserve">131_jpg.rf.1a70e4c9e91ea953aa55988ab20fa95a.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">131_jpg.rf.1a70e4c9e91ea953aa55988ab20fa95a.jpg </t>
+  </si>
+  <si>
     <t xml:space="preserve">135_jpg.rf.a8cbe93a3de035a4927b20c42604ae4c.jpg</t>
   </si>
   <si>
@@ -100,6 +79,9 @@
     <t xml:space="preserve">164_jpg.rf.9a5230f67ddc2426d52597a70c6984f9.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Not equal label</t>
+  </si>
+  <si>
     <t xml:space="preserve">165_jpg.rf.e831420b761a317ab9fb725e12781bd8.jpg</t>
   </si>
   <si>
@@ -112,21 +94,33 @@
     <t xml:space="preserve">186_jpg.rf.3d96cc9db76cb67ec0bab598d4208152.jpg </t>
   </si>
   <si>
+    <t xml:space="preserve">186_jpg.rf.3d96cc9db76cb67ec0bab598d4208152.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">194_jpg.rf.b8e95cf106dfe177aa13ff892562c641.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">201_jpg.rf.6c78e7e06349770df39f8f8a01a06908.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">NO </t>
+    <t xml:space="preserve">Not label but is clear</t>
   </si>
   <si>
     <t xml:space="preserve">202_jpg.rf.896abd97885d07442a74be88a00c73e2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">YES YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboblow detect 2 fractures</t>
+  </si>
+  <si>
     <t xml:space="preserve">204_jpg.rf.3c47ac3c43fab1b4d62a19ceed8c8231.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">looks roboflow is mistaken</t>
+  </si>
+  <si>
     <t xml:space="preserve">205_jpg.rf.b30bdf73b6009d15a54011fd1acab0d0.jpg</t>
   </si>
   <si>
@@ -136,12 +130,12 @@
     <t xml:space="preserve">208_jpg.rf.11baac82fd392341802eabf670ade349.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">239_jpg.rf.a3c439a0dc2f4c4e5db8b3a4c4a2180c.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">212_jpg.rf.24251e3e1177eae5ca265eac655a799f.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">239_jpg.rf.a3c439a0dc2f4c4e5db8b3a4c4a2180c.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">240_jpg.rf.0381da28fab54a07483b6f975dba4959.jpg</t>
   </si>
   <si>
@@ -151,15 +145,21 @@
     <t xml:space="preserve">258_jpg.rf.6c03add472168dc8aecab04803072d87.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Roboflow no fits the label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_jpg.rf.be603dcb6457f3d4d72ef38cc955ab9b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no fits the label, but looks  a clear fracture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_jpg.rf.e94435d98cb556f0a56cff1d7dd9b920.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">27_jpg.rf.671159daf1e92be6319d22d4c7c88c80.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">28_jpg.rf.be603dcb6457f3d4d72ef38cc955ab9b.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28_jpg.rf.e94435d98cb556f0a56cff1d7dd9b920.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">29_jpg.rf.7cfb0432c199bf6e76f661a83a3ca1d7.jpg</t>
   </si>
   <si>
@@ -172,34 +172,52 @@
     <t xml:space="preserve">44_jpg.rf.a8f296b8d749e394876fb6979c16caee.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Not equal labe.l but  looks point out a clear fracture</t>
+  </si>
+  <si>
     <t xml:space="preserve">50_jpg.rf.42e8ad065f5b065703c9f263be40fe8e.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">53_jpg.rf.9eae9dccc03d7b64f61d739e9f4f52f2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">61_jpg.rf.83c119624acc721b292a47934264a533.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES(Bad pointed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboflowfits the label other no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_jpg.rf.daf08f6efb908d9967c2233f1c77ed78.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not equal labe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72_jpg.rf.60268e8fdd7719031d78a73b5dcdd38f.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">54_jpg.rf.f8b4216afc0c231f67e05f6afe265886.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">61_jpg.rf.83c119624acc721b292a47934264a533.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_jpg.rf.daf08f6efb908d9967c2233f1c77ed78.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72_jpg.rf.60268e8fdd7719031d78a73b5dcdd38f.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">7_jpg.rf.5b79fa048d8e493e13436fdae01bae0c.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">90_jpg.rf.7163e0a2586c369f8cb72f1cdc305d52.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">YES (bad pointed)</t>
+  </si>
+  <si>
     <t xml:space="preserve">99_jpg.rf.65fbaae25e71535d041bcd972b4be3a6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">NON DETECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO DETECTED</t>
   </si>
 </sst>
 </file>
@@ -214,6 +232,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -235,12 +254,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
+      <sz val="12"/>
+      <name val=""/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -248,6 +268,7 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +323,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,28 +355,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="97.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -360,21 +386,27 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,10 +414,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,455 +428,561 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="Model &amp; API (roboflow.com)"/>
+    <hyperlink ref="D1" r:id="rId1" display="Detected in Model &amp; API (roboflow.com) "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ComparingWithRoboflow.xlsx
+++ b/ComparingWithRoboflow.xlsx
@@ -20,14 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
-  <si>
-    <t xml:space="preserve">Image </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">YES means that at least one fracture has been correctly detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO means that no fracture has been correctly detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP means false positive, it has been detected as a fracture that is not such</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND means true fracture no detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
   </si>
   <si>
     <t xml:space="preserve">EvaluateTESTFracture-7fylg_SeveralModels_Yolov10.py</t>
   </si>
   <si>
+    <t xml:space="preserve">FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">Detected in Model &amp; API (roboflow.com) </t>
   </si>
   <si>
@@ -49,9 +67,6 @@
     <t xml:space="preserve">118_jpg.rf.acee2a86eba65adc57f3b15d5acab93c.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">No label</t>
-  </si>
-  <si>
     <t xml:space="preserve">124_jpg.rf.100aeaede7a9c017d7f74f73cfcf34d7.jpg</t>
   </si>
   <si>
@@ -64,9 +79,6 @@
     <t xml:space="preserve">12_jpg.rf.3e4b2f52016c100e9f869397933ef2d3.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">131_jpg.rf.1a70e4c9e91ea953aa55988ab20fa95a.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">131_jpg.rf.1a70e4c9e91ea953aa55988ab20fa95a.jpg </t>
   </si>
   <si>
@@ -79,9 +91,6 @@
     <t xml:space="preserve">164_jpg.rf.9a5230f67ddc2426d52597a70c6984f9.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Not equal label</t>
-  </si>
-  <si>
     <t xml:space="preserve">165_jpg.rf.e831420b761a317ab9fb725e12781bd8.jpg</t>
   </si>
   <si>
@@ -91,9 +100,6 @@
     <t xml:space="preserve">173_jpg.rf.7bcde8912d29eb7f5409d79c922924cd.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">186_jpg.rf.3d96cc9db76cb67ec0bab598d4208152.jpg </t>
-  </si>
-  <si>
     <t xml:space="preserve">186_jpg.rf.3d96cc9db76cb67ec0bab598d4208152.jpg</t>
   </si>
   <si>
@@ -103,39 +109,30 @@
     <t xml:space="preserve">201_jpg.rf.6c78e7e06349770df39f8f8a01a06908.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Not label but is clear</t>
-  </si>
-  <si>
     <t xml:space="preserve">202_jpg.rf.896abd97885d07442a74be88a00c73e2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">YES YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roboblow detect 2 fractures</t>
-  </si>
-  <si>
     <t xml:space="preserve">204_jpg.rf.3c47ac3c43fab1b4d62a19ceed8c8231.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">looks roboflow is mistaken</t>
-  </si>
-  <si>
     <t xml:space="preserve">205_jpg.rf.b30bdf73b6009d15a54011fd1acab0d0.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">206_jpg.rf.3854aa9bcfdf9e6321ef94c5584f51ab.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
     <t xml:space="preserve">208_jpg.rf.11baac82fd392341802eabf670ade349.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">212_jpg.rf.24251e3e1177eae5ca265eac655a799f.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">239_jpg.rf.a3c439a0dc2f4c4e5db8b3a4c4a2180c.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">212_jpg.rf.24251e3e1177eae5ca265eac655a799f.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">240_jpg.rf.0381da28fab54a07483b6f975dba4959.jpg</t>
   </si>
   <si>
@@ -145,21 +142,15 @@
     <t xml:space="preserve">258_jpg.rf.6c03add472168dc8aecab04803072d87.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Roboflow no fits the label</t>
+    <t xml:space="preserve">27_jpg.rf.671159daf1e92be6319d22d4c7c88c80.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">28_jpg.rf.be603dcb6457f3d4d72ef38cc955ab9b.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">no fits the label, but looks  a clear fracture</t>
-  </si>
-  <si>
     <t xml:space="preserve">28_jpg.rf.e94435d98cb556f0a56cff1d7dd9b920.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">27_jpg.rf.671159daf1e92be6319d22d4c7c88c80.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">29_jpg.rf.7cfb0432c199bf6e76f661a83a3ca1d7.jpg</t>
   </si>
   <si>
@@ -172,49 +163,31 @@
     <t xml:space="preserve">44_jpg.rf.a8f296b8d749e394876fb6979c16caee.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Not equal labe.l but  looks point out a clear fracture</t>
-  </si>
-  <si>
     <t xml:space="preserve">50_jpg.rf.42e8ad065f5b065703c9f263be40fe8e.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">53_jpg.rf.9eae9dccc03d7b64f61d739e9f4f52f2.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">54_jpg.rf.f8b4216afc0c231f67e05f6afe265886.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">61_jpg.rf.83c119624acc721b292a47934264a533.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">YES(Bad pointed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roboflowfits the label other no</t>
-  </si>
-  <si>
     <t xml:space="preserve">69_jpg.rf.daf08f6efb908d9967c2233f1c77ed78.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Not equal labe</t>
-  </si>
-  <si>
     <t xml:space="preserve">72_jpg.rf.60268e8fdd7719031d78a73b5dcdd38f.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">54_jpg.rf.f8b4216afc0c231f67e05f6afe265886.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">7_jpg.rf.5b79fa048d8e493e13436fdae01bae0c.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">90_jpg.rf.7163e0a2586c369f8cb72f1cdc305d52.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">YES (bad pointed)</t>
-  </si>
-  <si>
     <t xml:space="preserve">99_jpg.rf.65fbaae25e71535d041bcd972b4be3a6.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NON DETECTED</t>
   </si>
   <si>
     <t xml:space="preserve">NO DETECTED</t>
@@ -227,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,13 +231,39 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -313,9 +312,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -330,8 +333,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -355,634 +374,787 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="97.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="AMJ6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4" t="n">
+      <c r="B54" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <f aca="false">SUM(C7:C49)</f>
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>18</v>
-      </c>
+      <c r="D54" s="1" t="n">
+        <f aca="false">SUM(D7:D49)</f>
+        <v>27</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <f aca="false">SUM(F7:F49)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <f aca="false">SUM(G7:G49)</f>
+        <v>45</v>
+      </c>
+      <c r="AMJ54" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="Detected in Model &amp; API (roboflow.com) "/>
+    <hyperlink ref="E6" r:id="rId1" display="Detected in Model &amp; API (roboflow.com) "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
